--- a/in/extraction1/corrections/supp_M.xlsx
+++ b/in/extraction1/corrections/supp_M.xlsx
@@ -99,9 +99,6 @@
     <t>Sarkozy</t>
   </si>
   <si>
-    <t>Population de la commune</t>
-  </si>
-  <si>
     <t>Neuilly-sur-Seine</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Conseiller Municipal</t>
+  </si>
+  <si>
+    <t>Population commune</t>
   </si>
 </sst>
 </file>
@@ -965,9 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -975,7 +973,7 @@
     <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1003,13 +1001,13 @@
         <v>18</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>7</v>
@@ -1030,7 +1028,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M1" s="11" t="s">
         <v>11</v>
@@ -1071,13 +1069,13 @@
         <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -1098,7 +1096,7 @@
         <v>5</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="6">
         <v>30435</v>
@@ -1110,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q2" s="6">
         <v>30435</v>
